--- a/spring-boot-drools-dicision-table/src/main/resources/rules/redeem.xlsx
+++ b/spring-boot-drools-dicision-table/src/main/resources/rules/redeem.xlsx
@@ -199,10 +199,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>redeemGiftType == $1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"A"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -212,6 +208,10 @@
   </si>
   <si>
     <t>"C"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(redeemGiftType == $1)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -643,7 +643,8 @@
     <col min="1" max="1" width="31.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.09765625" style="1" customWidth="1"/>
     <col min="3" max="4" width="34.19921875" style="1" customWidth="1"/>
-    <col min="5" max="10" width="18" style="1" customWidth="1"/>
+    <col min="5" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.59765625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="5" customWidth="1"/>
     <col min="12" max="16384" width="8.796875" style="5"/>
   </cols>
@@ -664,7 +665,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="61.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +697,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="81.599999999999994" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -765,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -792,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
@@ -812,7 +813,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
@@ -838,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -864,7 +865,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>29</v>
@@ -887,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>1</v>
@@ -913,7 +914,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>0</v>
@@ -939,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>32</v>
